--- a/model/跨境电子商务进口订单模板.xlsx
+++ b/model/跨境电子商务进口订单模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="115">
   <si>
     <t>订单编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>商品价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>运杂费</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -184,10 +180,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>改良种用濒危野马</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0101210010</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -204,10 +196,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PT123456789</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -308,10 +296,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>备注消息啊啊啊啊啊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>原产国</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -324,7 +308,171 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>615894561654856151654845</t>
+    <t>615896165485615165484599</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>千克</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>野马</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>野驴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>野骡子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大仲马</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小仲马</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>999.123458</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001.326958</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000.98562</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500.55555</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2199.593488</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一条备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二条备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三条备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四条备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五条备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>615896165485615165484123</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>七系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>千克</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝马C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝马E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝马S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>615896165456151654123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷文顿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注999</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注666666</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注7777777</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1559.555559</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3596.595685</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6952.584</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12698.55555</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -763,15 +911,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP33"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:42" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:41" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,15 +1002,15 @@
         <v>26</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AF1" s="2" t="s">
@@ -871,7 +1019,7 @@
       <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AI1" s="1" t="s">
@@ -884,808 +1032,1090 @@
         <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:41" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="R2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="S2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="T2" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Z2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="AA2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AB2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AC2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AD2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AE2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AL2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AL2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="AO2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP2" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="R3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="S3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="T3" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="Z3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="AA3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="AB3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AC3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AD3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AE3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AC3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AK3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AL3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AM3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AL3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="AO3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP3" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="R4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="S4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="T4" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="Z4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="AA4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="AB4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AC4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AD4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AE4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AC4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AG4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AH4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AI4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AK4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AL4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AM4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AL4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="AO4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP4" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="R5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="S5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="T5" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="Z5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="AA5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="AB5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="AC5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AA5" s="8" t="s">
+      <c r="AD5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AB5" s="8" t="s">
+      <c r="AE5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AC5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AG5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AH5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AI5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AJ5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AK5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AL5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AM5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AL5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="AO5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP5" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="R6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="S6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="T6" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="Z6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="AA6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="AB6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Z6" s="8" t="s">
+      <c r="AC6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AA6" s="8" t="s">
+      <c r="AD6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AB6" s="8" t="s">
+      <c r="AE6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AF6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AG6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AF6" s="5" t="s">
+      <c r="AH6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AG6" s="5" t="s">
+      <c r="AI6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AJ6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AI6" s="5" t="s">
+      <c r="AK6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AJ6" s="5" t="s">
+      <c r="AL6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AM6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AL6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="AO6" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AP6" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="V7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO7" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO9" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO10" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1727,9 +2157,8 @@
       <c r="AM11" s="9"/>
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1771,9 +2200,8 @@
       <c r="AM12" s="9"/>
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1815,9 +2243,8 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1859,9 +2286,8 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1903,9 +2329,8 @@
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1947,9 +2372,8 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1991,9 +2415,8 @@
       <c r="AM17" s="9"/>
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2035,9 +2458,8 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2079,9 +2501,8 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
-      <c r="AP19" s="9"/>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2123,9 +2544,8 @@
       <c r="AM20" s="9"/>
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2167,9 +2587,8 @@
       <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2211,9 +2630,8 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2255,9 +2673,8 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2299,9 +2716,8 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
-      <c r="AP24" s="9"/>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2343,9 +2759,8 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
-      <c r="AP25" s="9"/>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2387,9 +2802,8 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2431,9 +2845,8 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
-      <c r="AP27" s="9"/>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2475,9 +2888,8 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
-      <c r="AP28" s="9"/>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2519,9 +2931,8 @@
       <c r="AM29" s="9"/>
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
-      <c r="AP29" s="9"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2563,9 +2974,8 @@
       <c r="AM30" s="9"/>
       <c r="AN30" s="9"/>
       <c r="AO30" s="9"/>
-      <c r="AP30" s="9"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2607,9 +3017,8 @@
       <c r="AM31" s="9"/>
       <c r="AN31" s="9"/>
       <c r="AO31" s="9"/>
-      <c r="AP31" s="9"/>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2651,9 +3060,8 @@
       <c r="AM32" s="9"/>
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
-      <c r="AP32" s="9"/>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2695,7 +3103,49 @@
       <c r="AM33" s="9"/>
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
